--- a/수업/반도체소자 측정 및 분석기법/HW1.xlsx
+++ b/수업/반도체소자 측정 및 분석기법/HW1.xlsx
@@ -148,17 +148,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,9 +457,11 @@
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,7 +506,7 @@
         <v>1540.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -510,7 +515,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -519,7 +524,7 @@
         <v>3.1415926535897931E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -540,76 +545,98 @@
         <v>120.37948536693027</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>2*B5</f>
         <v>6.2831853071795862E-4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>B2/B5</f>
         <v>63.66197723675814</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="I9">
         <f>I8/(0.05*74)</f>
         <v>1.6267498022558144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
         <f>2*B5</f>
         <v>6.2831853071795862E-4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>C2/B5</f>
         <v>127.32395447351628</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="array" ref="C11:D12">MINVERSE(C9:D10)</f>
         <v>3183.098861837907</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>-1591.5494309189532</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>B3</f>
         <v>318.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>C11*E11+D11*E12</f>
         <v>20212.677772670984</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
         <v>-1.5707963267948963E-2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1.5707963267948963E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>C3</f>
         <v>623.9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f>C12*E11+D12*E12</f>
         <v>4.8003535746852029</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f>1/(B18*((10^19)/(-10^5))*100*(EXP(-10)-1))</f>
+        <v>624.24806616167905</v>
+      </c>
+      <c r="K14">
+        <f>PI()/LN(2)*(11/0.5)</f>
+        <v>99.711923120198264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f>(LN(2)/PI())*0.001*I14</f>
+        <v>0.13773134672171422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>(I14*0.05*0.001)/(0.001)</f>
+        <v>31.212403308083953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -620,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -640,21 +667,95 @@
         <v>9.0112500000000002E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
         <v>1250</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="4">
+        <f>I19/I20</f>
+        <v>5.0144454580148093E-5</v>
+      </c>
+      <c r="L19">
+        <f>(I20*0.01*0.000001)/0.05</f>
+        <v>1.9942384624039649E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20">
         <f>2*10000000000000000</f>
         <v>2E+16</v>
+      </c>
+      <c r="I20">
+        <v>99.711923120198264</v>
+      </c>
+      <c r="L20">
+        <f>0.32*1.15</f>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f>(2.667*10^32)/10^16</f>
+        <v>2.667E+16</v>
+      </c>
+      <c r="K23">
+        <f>(4*0.3*(0.368*10^-10)^2)/(B18*11.7*8.85*10^-14*10^-6)</f>
+        <v>9796822492816906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f>1+SQRT(I23)</f>
+        <v>163309523.07388276</v>
+      </c>
+      <c r="K24">
+        <f>K23/10^16</f>
+        <v>0.97968224928169056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f>1-SQRT(K24)</f>
+        <v>1.0211007698261665E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>(0.0000000000368)/(0.001*(1-0.32))</f>
+        <v>5.4117647058823532E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>30.38759+1.68278*LOG10(L27)-0.03177*(LOG10(L27))^2</f>
+        <v>16.481803417201473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>10^L28</f>
+        <v>3.032518208293456E+16</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>2*PI()*10^6*10^-10/(2*10^-4)</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>2*PI()*10^7*10^-11/(10^-4)</f>
+        <v>6.2831853071795862</v>
       </c>
     </row>
   </sheetData>

--- a/수업/반도체소자 측정 및 분석기법/HW1.xlsx
+++ b/수업/반도체소자 측정 및 분석기법/HW1.xlsx
@@ -158,11 +158,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,8 @@
     <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -546,7 +547,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
@@ -565,7 +566,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2">
         <f>2*B5</f>
         <v>6.2831853071795862E-4</v>
@@ -578,7 +579,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
@@ -598,7 +599,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2">
         <v>-1.5707963267948963E-2</v>
       </c>
@@ -674,10 +675,10 @@
       <c r="B19">
         <v>1250</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <f>I19/I20</f>
         <v>5.0144454580148093E-5</v>
       </c>
@@ -710,6 +711,10 @@
       <c r="K23">
         <f>(4*0.3*(0.368*10^-10)^2)/(B18*11.7*8.85*10^-14*10^-6)</f>
         <v>9796822492816906</v>
+      </c>
+      <c r="L23">
+        <f>(4*0.3*0.32^2*(0.368*10^-10)^2)/(B18*11.7*8.85*10^-14*10^-6*(1-0.32)^2)</f>
+        <v>2169538545122083.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">

--- a/수업/반도체소자 측정 및 분석기법/HW1.xlsx
+++ b/수업/반도체소자 측정 및 분석기법/HW1.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,8 +512,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>0.01</f>
-        <v>0.01</v>
+        <f>0.01/2</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B5">
         <f>PI()*(B4^2)</f>
-        <v>3.1415926535897931E-4</v>
+        <v>7.8539816339744827E-5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -551,12 +551,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <f>2*B5</f>
-        <v>6.2831853071795862E-4</v>
+        <f>2/B5</f>
+        <v>25464.790894703256</v>
       </c>
       <c r="D9" s="2">
         <f>B2/B5</f>
-        <v>63.66197723675814</v>
+        <v>254.64790894703256</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -568,12 +568,12 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="2">
-        <f>2*B5</f>
-        <v>6.2831853071795862E-4</v>
+        <f>2/B5</f>
+        <v>25464.790894703256</v>
       </c>
       <c r="D10" s="2">
         <f>C2/B5</f>
-        <v>127.32395447351628</v>
+        <v>509.29581789406512</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -584,10 +584,10 @@
       </c>
       <c r="C11" s="2">
         <f t="array" ref="C11:D12">MINVERSE(C9:D10)</f>
-        <v>3183.098861837907</v>
+        <v>7.8539816339744827E-5</v>
       </c>
       <c r="D11" s="2">
-        <v>-1591.5494309189532</v>
+        <v>-3.9269908169872407E-5</v>
       </c>
       <c r="E11" s="2">
         <f>B3</f>
@@ -595,16 +595,16 @@
       </c>
       <c r="F11" s="2">
         <f>C11*E11+D11*E12</f>
-        <v>20212.677772670984</v>
+        <v>4.9872783375738694E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="2">
-        <v>-1.5707963267948963E-2</v>
+        <v>-3.9269908169872409E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>1.5707963267948963E-2</v>
+        <v>3.9269908169872409E-3</v>
       </c>
       <c r="E12" s="2">
         <f>C3</f>
@@ -612,7 +612,7 @@
       </c>
       <c r="F12" s="2">
         <f>C12*E11+D12*E12</f>
-        <v>4.8003535746852029</v>
+        <v>1.2000883936713007</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
